--- a/PN_Datasets/Narrative/CSVs_of_Combined_Data_N/Narrative_Results_Simple.xlsx
+++ b/PN_Datasets/Narrative/CSVs_of_Combined_Data_N/Narrative_Results_Simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristenjohnson/Desktop/Thesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristenjohnson/KristenWorkingDirectory/Play_Narrative/PN_Datasets/Narrative/CSVs_of_Combined_Data_N/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD63735-8E6C-3B4C-9D4E-5100815F82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA26F3E-647D-E64B-A62E-CFD5108FE48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="2040" windowWidth="27640" windowHeight="16940" xr2:uid="{7E3AB80C-AC6E-F84A-8B34-2A76EB6D4234}"/>
+    <workbookView xWindow="6360" yWindow="1760" windowWidth="27640" windowHeight="16940" xr2:uid="{7E3AB80C-AC6E-F84A-8B34-2A76EB6D4234}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="25">
   <si>
     <t>ChildID</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -155,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -260,11 +260,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -285,6 +303,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3001CF-1558-9A45-A0AD-9ECA3700B9C1}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>75</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>84</v>
       </c>
@@ -1107,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>102</v>
       </c>
@@ -1136,7 +1156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -1165,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>106</v>
       </c>
@@ -1191,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>30</v>
       </c>
@@ -1218,7 +1238,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>35</v>
       </c>
@@ -1236,7 +1256,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -1254,7 +1274,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>93</v>
       </c>
@@ -1283,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>94</v>
       </c>
@@ -1312,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>98</v>
       </c>
@@ -1333,7 +1353,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>99</v>
       </c>
@@ -1359,7 +1379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>117</v>
       </c>
@@ -1388,59 +1408,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
+        <v>132</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="E30" s="1"/>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>135</v>
-      </c>
-      <c r="B30" s="6">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>140</v>
       </c>
       <c r="B31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
@@ -1453,9 +1472,30 @@
         <v>16</v>
       </c>
       <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>150</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>14</v>
       </c>
     </row>
